--- a/biology/Écologie/Réseau_émeraude/Réseau_émeraude.xlsx
+++ b/biology/Écologie/Réseau_émeraude/Réseau_émeraude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9meraude</t>
+          <t>Réseau_émeraude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  réseau émeraude est un réseau écologique destiné à contribuer à restaurer, protéger et conserver la biodiversité en Europe (un  "cœur vert de l'Europe"), en maillant les habitats de l'Europe et de sa périphérie. 
 Ce projet s'inscrit aussi dans la perspective de la Convention sur la diversité biologique signée à Rio en juin 1992 au Sommet de la terre.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9meraude</t>
+          <t>Réseau_émeraude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce projet a été lancé en 1998 par le Conseil de l'Europe, en tant qu'une des réponses aux exigences de la convention de Berne, entrée en vigueur le 1er juin 1982. Il doit être mis en place, subsidiairement, dans chaque État ayant signé et ratifié la convention ou par des partenaires associés. 
 La convention de Berne a été signée par les 46 États membres du conseil de l'Europe, ainsi que l'Union européenne, Monaco, le Burkina Faso, le Maroc, la Tunisie et le Sénégal. L'Algérie, la Biélorussie, la Bosnie-Herzégovine, le Cap-Vert, le Vatican, Saint-Marin et la Russie sont non-signataires mais ont un statut d'observateur qui les invite à contribuer au réseau.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9meraude</t>
+          <t>Réseau_émeraude</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Un Réseau Émeraude en Afrique ?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Divers oiseaux, mammifères (marins) et insectes sont de grands migrateurs et vivent à la fois en Afrique et en Europe. Il est donc cohérent d'étendre la stratégie de conservation et de gestion en réseau d'habitats en Afrique et à la grande zone du paléarctique nord-occidental pour ce qui concerne la plupart des oiseaux.
 Une action concertée de protection de la diversité génétique des espèces, et de leurs habitats, visant aussi à lutter contre la chasse et le commerce illégal relève d'un intérêt général et commun aux deux continents. 
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_%C3%A9meraude</t>
+          <t>Réseau_émeraude</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
